--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Catalogos Web Administrativa/Catalogos Web Administrativa.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Catalogos Web Administrativa/Catalogos Web Administrativa.xlsx
@@ -1,24 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollo\Proyectos\Proyectos Personales\Universidad\Documentacion\Catalogos\Catalogos Web Administrativa\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="3630"/>
   </bookViews>
   <sheets>
-    <sheet name="SIS_WADM_ARBOLMENU" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" r:id="rId1" name="SIS_WADM_ARBOLMENU"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" fullCalcOnLoad="true"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}"/>
   </extLst>
 </workbook>
 </file>
@@ -418,14 +411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -434,7 +427,7 @@
     <col min="6" max="6" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row spans="1:6" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row spans="1:6" outlineLevel="0" r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -474,7 +467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row spans="1:6" outlineLevel="0" r="3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -494,7 +487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row spans="1:6" outlineLevel="0" r="4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -514,7 +507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row spans="1:6" outlineLevel="0" r="5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -534,7 +527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row spans="1:6" outlineLevel="0" r="6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -554,7 +547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row spans="1:6" outlineLevel="0" r="7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -574,7 +567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row spans="1:6" outlineLevel="0" r="8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -594,7 +587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row spans="1:6" outlineLevel="0" r="9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -614,7 +607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row spans="1:6" outlineLevel="0" r="10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -634,7 +627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row spans="1:6" outlineLevel="0" r="11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -654,7 +647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row spans="1:6" outlineLevel="0" r="12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -672,6 +665,127 @@
       </c>
       <c r="F12" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0">
+        <v>1</v>
+      </c>
+      <c r="B13" s="0">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0">
+        <v>3</v>
+      </c>
+      <c r="B15" s="0">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0">
+        <v>4</v>
+      </c>
+      <c r="B16" s="0">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0">
+        <v>5</v>
+      </c>
+      <c r="B17" s="0">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0">
+        <v>6</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0">
+        <v>7</v>
+      </c>
+      <c r="B19" s="0">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0">
+        <v>8</v>
+      </c>
+      <c r="B20" s="0">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0">
+        <v>9</v>
+      </c>
+      <c r="B21" s="0">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0">
+        <v>10</v>
+      </c>
+      <c r="B22" s="0">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0">
+        <v>11</v>
+      </c>
+      <c r="B23" s="0">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
